--- a/a2-description.xlsx
+++ b/a2-description.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="поведение" sheetId="1" r:id="rId1"/>
+    <sheet name="скорости" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
   <si>
     <t>Функция Ссать (ОпасноеЗдоровье, ОпасноеРасстояние, БезопасноеРасстояние)</t>
   </si>
@@ -110,6 +111,123 @@
   </si>
   <si>
     <t>Дракон+</t>
+  </si>
+  <si>
+    <t>время от скорости = 255 div скорость + 1</t>
+  </si>
+  <si>
+    <t>скорость от высоты = скорость - (скорость * высота) div 64</t>
+  </si>
+  <si>
+    <t>скорость игры</t>
+  </si>
+  <si>
+    <t>тик/сек</t>
+  </si>
+  <si>
+    <t>скорость</t>
+  </si>
+  <si>
+    <t>высота</t>
+  </si>
+  <si>
+    <t>1 тик</t>
+  </si>
+  <si>
+    <t>наименьшая единица времени, которую может заметить игрок</t>
+  </si>
+  <si>
+    <t>1 игр.сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> игр.сек</t>
+  </si>
+  <si>
+    <t>игровая секунда</t>
+  </si>
+  <si>
+    <t>величина</t>
+  </si>
+  <si>
+    <t>единица</t>
+  </si>
+  <si>
+    <t>ед. заклинаний</t>
+  </si>
+  <si>
+    <t>постоянные</t>
+  </si>
+  <si>
+    <t>зависимости</t>
+  </si>
+  <si>
+    <t>низ</t>
+  </si>
+  <si>
+    <t>верх</t>
+  </si>
+  <si>
+    <t>1 высота</t>
+  </si>
+  <si>
+    <t>ед.карты</t>
+  </si>
+  <si>
+    <t>высота ячейки</t>
+  </si>
+  <si>
+    <t>подъем</t>
+  </si>
+  <si>
+    <t>пример</t>
+  </si>
+  <si>
+    <t>выч.скорость</t>
+  </si>
+  <si>
+    <t>выч.время</t>
+  </si>
+  <si>
+    <t>1 скорость движения</t>
+  </si>
+  <si>
+    <t>1 скорость поворота</t>
+  </si>
+  <si>
+    <t>скорость движения юнита</t>
+  </si>
+  <si>
+    <t>скорость поворота юнита</t>
+  </si>
+  <si>
+    <t>зависимость скорости от высоты:</t>
+  </si>
+  <si>
+    <t>зависимость времени движения от скорости:</t>
+  </si>
+  <si>
+    <t>время от скорости = 64 div скорость</t>
+  </si>
+  <si>
+    <t>зависимость времени полного оборота от скорости поворота:</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>выч.время оборота</t>
+  </si>
+  <si>
+    <t>скорость поворота</t>
+  </si>
+  <si>
+    <t>360/64</t>
+  </si>
+  <si>
+    <t>градус/тик</t>
+  </si>
+  <si>
+    <t>ед.базы</t>
   </si>
 </sst>
 </file>
@@ -146,15 +264,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -529,16 +648,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -556,16 +675,16 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="117.75">
       <c r="A6" t="s">
@@ -574,22 +693,22 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -623,7 +742,7 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9">
@@ -701,7 +820,7 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
       <c r="C14">
@@ -744,7 +863,7 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>5</v>
       </c>
       <c r="C17" t="s">
@@ -900,7 +1019,7 @@
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>4.5</v>
       </c>
       <c r="C26">
@@ -1004,7 +1123,7 @@
       <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>4.5</v>
       </c>
       <c r="C31">
@@ -1108,7 +1227,7 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>4.5</v>
       </c>
       <c r="C36">
@@ -1212,7 +1331,7 @@
       <c r="A41" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>4.5</v>
       </c>
       <c r="C41">
@@ -1430,4 +1549,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18">
+        <v>-2</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19">
+        <v>-3</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20">
+        <v>-4</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>-32</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <f>C24-FLOOR(C24*C25/64,1)</f>
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <f>FLOOR(255/C27,1)+1</f>
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <f>FLOOR(64/C23,1)</f>
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>